--- a/ExcelReport/excel/BBBB_test.xlsx
+++ b/ExcelReport/excel/BBBB_test.xlsx
@@ -8682,10 +8682,9 @@
           <t>ชื่อบริษัท</t>
         </is>
       </c>
-      <c r="C2" s="537" t="inlineStr">
-        <is>
-          <t>BBBB</t>
-        </is>
+      <c r="C2" s="537">
+        <f>'Fr-03'!$D$2</f>
+        <v/>
       </c>
       <c r="D2" s="862" t="n"/>
       <c r="E2" s="862" t="n"/>
